--- a/IRCTC Test Case.xlsx
+++ b/IRCTC Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOWRI SS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0C5957-9785-445A-96A9-EDE9ACA6D0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD6778C-6DED-4E7D-ABBC-D13DAB2E3805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83A2EC55-B432-4995-A839-732D78622E5A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="610">
   <si>
     <t>IRCTC Applications</t>
   </si>
@@ -985,9 +985,6 @@
   </si>
   <si>
     <t>The Flat number Field  successfully but It needed to Show an Error message</t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
   <si>
     <t>TC-86</t>
@@ -1454,9 +1451,6 @@
     <t>Successfully pop-up passenger details  page</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pass</t>
-  </si>
-  <si>
     <t>TC-124</t>
   </si>
   <si>
@@ -1805,13 +1799,91 @@
   </si>
   <si>
     <t>The OTP field Successfully Show an Error message</t>
+  </si>
+  <si>
+    <t>The Full name Field Should not accept maximum of 120 char and it should show error message</t>
+  </si>
+  <si>
+    <t>Full Name Field  Successfully and doesnot Show Error message</t>
+  </si>
+  <si>
+    <t>To check if an email field validates an email address containing a domain or not</t>
+  </si>
+  <si>
+    <t>gkoop@ghjjkl.com</t>
+  </si>
+  <si>
+    <t>The E-mail  Field Should not accept the characters</t>
+  </si>
+  <si>
+    <t>To check if an email address having numbers in domain is invalid.</t>
+  </si>
+  <si>
+    <t>gowri@12gmail.com</t>
+  </si>
+  <si>
+    <t>The E-mail  Field Should not accept the numbers</t>
+  </si>
+  <si>
+    <t>To check if an audio option is added for the captcha or not as per the requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Captcha field Should have the audio as per the requirement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Captcha field doesnot have the audio </t>
+  </si>
+  <si>
+    <t>To check an error message is shown in case the captcha is partly filled by the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Captcha field Should display the error message </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Captcha field doesnot display the error message </t>
+  </si>
+  <si>
+    <t>The user cannot cancel ticket at any time</t>
+  </si>
+  <si>
+    <t>To check the user can cancel ticket at any time before 24 hrs from train departure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check the user can cancel ticket at any time </t>
+  </si>
+  <si>
+    <t>Successfully displayed error message should display</t>
+  </si>
+  <si>
+    <t>The user cannot cancel ticket at any time error message not displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancellation </t>
+  </si>
+  <si>
+    <t>TC-147</t>
+  </si>
+  <si>
+    <t>TC-148</t>
+  </si>
+  <si>
+    <t>TC-149</t>
+  </si>
+  <si>
+    <t>TC-150</t>
+  </si>
+  <si>
+    <t>TC-151</t>
+  </si>
+  <si>
+    <t>TC-152</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1839,6 +1911,12 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1899,7 +1977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1913,6 +1991,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1922,6 +2003,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2237,10 +2319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB0D50E-2DBD-4DA5-8119-0DDE621E5F45}">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="F150" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2257,73 +2339,73 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B4" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -2333,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -2398,7 +2480,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2424,7 +2506,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2476,7 +2558,7 @@
         <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2502,7 +2584,7 @@
         <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2552,7 +2634,7 @@
         <v>46</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2572,10 +2654,10 @@
         <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>584</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
+        <v>585</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>23</v>
@@ -2604,7 +2686,7 @@
         <v>55</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2630,7 +2712,7 @@
         <v>55</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>23</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2654,7 +2736,7 @@
         <v>55</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>23</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2668,7 +2750,7 @@
         <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>63</v>
@@ -2694,7 +2776,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>67</v>
@@ -2706,7 +2788,7 @@
         <v>55</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2780,7 +2862,7 @@
         <v>80</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2880,7 +2962,7 @@
         <v>97</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2919,17 +3001,17 @@
       <c r="C29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>102</v>
+      <c r="D29" t="s">
+        <v>586</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>587</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>96</v>
+        <v>588</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>23</v>
@@ -2943,22 +3025,22 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>589</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>107</v>
+        <v>591</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2969,22 +3051,22 @@
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -2995,22 +3077,22 @@
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>584</v>
+        <v>108</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3021,17 +3103,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>580</v>
+        <v>222</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>18</v>
@@ -3048,17 +3132,19 @@
         <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F34" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>222</v>
+        <v>582</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3072,22 +3158,20 @@
         <v>114</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>126</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>128</v>
+        <v>578</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>129</v>
       </c>
@@ -3095,44 +3179,40 @@
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>564</v>
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>592</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>131</v>
+        <v>593</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>132</v>
+        <v>594</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>134</v>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s">
+        <v>595</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>135</v>
+        <v>596</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>136</v>
+        <v>597</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3143,19 +3223,17 @@
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>18</v>
@@ -3169,25 +3247,25 @@
         <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>585</v>
+        <v>128</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>147</v>
       </c>
@@ -3197,15 +3275,15 @@
       <c r="C40" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>148</v>
+      <c r="D40" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>18</v>
@@ -3216,22 +3294,20 @@
         <v>151</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>18</v>
@@ -3242,23 +3318,25 @@
         <v>154</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3266,25 +3344,25 @@
         <v>157</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>156</v>
+        <v>583</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3292,25 +3370,23 @@
         <v>158</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3321,23 +3397,25 @@
         <v>152</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>162</v>
       </c>
@@ -3345,19 +3423,17 @@
         <v>152</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>18</v>
@@ -3371,22 +3447,22 @@
         <v>152</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>584</v>
+        <v>156</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3397,17 +3473,19 @@
         <v>152</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>580</v>
+        <v>156</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>18</v>
@@ -3421,23 +3499,23 @@
         <v>152</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>170</v>
       </c>
@@ -3445,19 +3523,19 @@
         <v>152</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>171</v>
+        <v>51</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>18</v>
@@ -3471,17 +3549,19 @@
         <v>152</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>177</v>
+        <v>582</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>18</v>
@@ -3492,20 +3572,20 @@
         <v>178</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>183</v>
+        <v>578</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>18</v>
@@ -3516,22 +3596,20 @@
         <v>184</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>18</v>
@@ -3542,25 +3620,25 @@
         <v>186</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3568,25 +3646,23 @@
         <v>187</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>172</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3597,25 +3673,23 @@
         <v>179</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>191</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>192</v>
       </c>
@@ -3623,19 +3697,19 @@
         <v>179</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>562</v>
+        <v>185</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>18</v>
@@ -3649,19 +3723,19 @@
         <v>179</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>18</v>
@@ -3675,22 +3749,22 @@
         <v>179</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3698,44 +3772,48 @@
         <v>202</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>18</v>
@@ -3746,22 +3824,22 @@
         <v>212</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>18</v>
@@ -3772,25 +3850,25 @@
         <v>218</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3798,25 +3876,23 @@
         <v>223</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3824,22 +3900,20 @@
         <v>226</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>18</v>
@@ -3853,17 +3927,19 @@
         <v>213</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E66" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>18</v>
@@ -3877,19 +3953,19 @@
         <v>213</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>581</v>
+        <v>222</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>18</v>
@@ -3903,23 +3979,25 @@
         <v>213</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E68" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>222</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>242</v>
       </c>
@@ -3927,16 +4005,16 @@
         <v>213</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>567</v>
+        <v>227</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>231</v>
@@ -3945,7 +4023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>246</v>
       </c>
@@ -3953,22 +4031,20 @@
         <v>213</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>247</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3979,20 +4055,22 @@
         <v>213</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E71" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>222</v>
+        <v>579</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -4003,23 +4081,23 @@
         <v>213</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>255</v>
       </c>
@@ -4029,23 +4107,23 @@
       <c r="C73" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>256</v>
+      <c r="D73" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>259</v>
       </c>
@@ -4053,19 +4131,19 @@
         <v>213</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>261</v>
+        <v>243</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>18</v>
@@ -4079,20 +4157,20 @@
         <v>213</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>222</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -4103,19 +4181,17 @@
         <v>213</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>270</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>583</v>
+        <v>254</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>18</v>
@@ -4129,20 +4205,22 @@
         <v>213</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E77" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>222</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -4153,16 +4231,16 @@
         <v>213</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>231</v>
@@ -4179,7 +4257,7 @@
         <v>213</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>265</v>
@@ -4192,7 +4270,7 @@
         <v>222</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -4203,19 +4281,19 @@
         <v>213</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>90</v>
+        <v>581</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>18</v>
@@ -4229,19 +4307,17 @@
         <v>213</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>18</v>
@@ -4255,20 +4331,22 @@
         <v>213</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E82" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -4279,22 +4357,20 @@
         <v>213</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>96</v>
+        <v>266</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -4305,19 +4381,19 @@
         <v>213</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>287</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>288</v>
+        <v>88</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>18</v>
@@ -4331,22 +4407,22 @@
         <v>213</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>290</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -4357,19 +4433,17 @@
         <v>213</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>294</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>296</v>
+        <v>97</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>18</v>
@@ -4383,22 +4457,22 @@
         <v>213</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>294</v>
+        <v>102</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>299</v>
+        <v>96</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -4406,25 +4480,25 @@
         <v>300</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>305</v>
+        <v>107</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -4432,82 +4506,82 @@
         <v>307</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>309</v>
+        <v>111</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>310</v>
+        <v>112</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>568</v>
+        <v>292</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>569</v>
+        <v>292</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>317</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>301</v>
@@ -4516,24 +4590,24 @@
         <v>302</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>301</v>
@@ -4542,116 +4616,118 @@
         <v>302</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="F93" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>326</v>
+        <v>302</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="G94" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>331</v>
+        <v>302</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>579</v>
+        <v>316</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E96" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F96" s="2" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>579</v>
+        <v>222</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>339</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>341</v>
+        <v>222</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>18</v>
@@ -4659,51 +4735,51 @@
     </row>
     <row r="98" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>579</v>
+        <v>328</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>329</v>
+        <v>577</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>18</v>
@@ -4711,51 +4787,49 @@
     </row>
     <row r="100" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>351</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>18</v>
@@ -4763,73 +4837,77 @@
     </row>
     <row r="102" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>222</v>
+        <v>577</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E103" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="F103" s="2" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>222</v>
+        <v>328</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E104" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>368</v>
+        <v>577</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>18</v>
@@ -4837,25 +4915,25 @@
     </row>
     <row r="105" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>371</v>
+        <v>288</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>18</v>
@@ -4863,47 +4941,49 @@
     </row>
     <row r="106" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E106" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="F106" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>222</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>380</v>
+        <v>112</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>381</v>
+        <v>222</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>18</v>
@@ -4911,23 +4991,23 @@
     </row>
     <row r="108" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>18</v>
@@ -4935,23 +5015,25 @@
     </row>
     <row r="109" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E109" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="F109" s="2" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>18</v>
@@ -4959,25 +5041,23 @@
     </row>
     <row r="110" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>395</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>18</v>
@@ -4985,51 +5065,47 @@
     </row>
     <row r="111" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>400</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>405</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>18</v>
@@ -5037,227 +5113,229 @@
     </row>
     <row r="113" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="D113" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>400</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E114" s="2">
-        <v>38657</v>
+        <v>393</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E116" s="2">
-        <v>40878</v>
+        <v>393</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E117" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="F117" s="2" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>432</v>
+        <v>412</v>
+      </c>
+      <c r="E118" s="2">
+        <v>38657</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>231</v>
+        <v>414</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E119" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>439</v>
+        <v>422</v>
+      </c>
+      <c r="E120" s="2">
+        <v>40878</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>231</v>
+        <v>414</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>18</v>
@@ -5265,75 +5343,75 @@
     </row>
     <row r="122" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>451</v>
+        <v>231</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>455</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>174</v>
+        <v>434</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E124" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="F124" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>460</v>
+        <v>231</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>18</v>
@@ -5341,25 +5419,23 @@
     </row>
     <row r="125" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>16</v>
+        <v>443</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>153</v>
+        <v>444</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>18</v>
@@ -5367,73 +5443,75 @@
     </row>
     <row r="126" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E126" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="F126" s="2" t="s">
-        <v>21</v>
+        <v>449</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>156</v>
+        <v>450</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="B128" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>64</v>
+        <v>458</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>65</v>
+        <v>459</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>18</v>
@@ -5441,49 +5519,49 @@
     </row>
     <row r="129" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E129" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="F129" s="2" t="s">
-        <v>470</v>
+        <v>16</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>471</v>
+        <v>153</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>472</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>474</v>
+        <v>386</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>18</v>
@@ -5491,75 +5569,73 @@
     </row>
     <row r="131" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>474</v>
+        <v>386</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>474</v>
+        <v>386</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>479</v>
+        <v>464</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>480</v>
+        <v>63</v>
       </c>
       <c r="F132" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G132" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="B133" s="2" t="s">
-        <v>474</v>
+        <v>386</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>18</v>
@@ -5567,49 +5643,49 @@
     </row>
     <row r="134" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E134" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="F134" s="2" t="s">
-        <v>487</v>
+        <v>16</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>482</v>
+        <v>153</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>237</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>581</v>
+        <v>156</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>18</v>
@@ -5617,201 +5693,201 @@
     </row>
     <row r="136" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="B137" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>492</v>
+        <v>476</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>294</v>
+        <v>30</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>582</v>
+        <v>483</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>472</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>497</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>231</v>
+        <v>480</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E139" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="F139" s="2" t="s">
-        <v>501</v>
+        <v>238</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>502</v>
+        <v>579</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>506</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>507</v>
+        <v>241</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>504</v>
+        <v>292</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E141" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="F141" s="2" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>516</v>
+        <v>231</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>521</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>18</v>
@@ -5819,173 +5895,173 @@
     </row>
     <row r="144" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>167</v>
+        <v>603</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>600</v>
       </c>
       <c r="E144" s="2"/>
-      <c r="F144" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>580</v>
+      <c r="F144" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>602</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="B146" s="2" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="E146" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>504</v>
+      </c>
       <c r="F146" s="2" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>532</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>542</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>547</v>
+        <v>114</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>548</v>
+        <v>167</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2" t="s">
-        <v>549</v>
+        <v>121</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>18</v>
@@ -5993,54 +6069,204 @@
     </row>
     <row r="151" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C151" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="G157" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="G151" s="2" t="s">
+      <c r="H157" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H151" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C152" s="2" t="s">
+      <c r="E158" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="G158" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>416</v>
+      <c r="H158" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6051,8 +6277,11 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="https://www.irctc.co.in/nget/train-search" xr:uid="{4D5D54A2-D2F6-473A-B4D3-CDF7240A0F44}"/>
+    <hyperlink ref="E29" r:id="rId2" xr:uid="{ACD144DA-D05B-4F61-9D56-54158DCDCA31}"/>
+    <hyperlink ref="E30" r:id="rId3" xr:uid="{64D55B88-093F-4C3E-B3BC-0261A097CBDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
